--- a/data/trans_orig/P34A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D047DF-EFF9-4CAB-B263-668340AFCFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E266427-632E-4221-81E0-A9AAB92C83A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F0BF7BB-136C-4955-8E4B-BF9BE2D4126A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C304039-0F7F-4B52-9122-C8D5C1FD1CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="806">
   <si>
     <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -89,2311 +89,2374 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>Actividad física regular, varias veces al mes</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>Alguna actividad física o deportiva ocasional</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>Actividad física regular, varias veces al mes</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>Alguna actividad física o deportiva ocasional</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
   </si>
   <si>
     <t>53,21%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
   </si>
   <si>
     <t>43,67%</t>
   </si>
   <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>42,99%</t>
   </si>
   <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>45,43%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12924BC8-5695-47DE-A0B6-AD99A48A568D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B5F5E6-CDF4-4A5B-AE14-9E16439A4CFC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3476,10 +3539,10 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3557,13 @@
         <v>111117</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -3509,13 +3572,13 @@
         <v>55435</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -3524,13 +3587,13 @@
         <v>166552</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3608,13 @@
         <v>395612</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>416</v>
@@ -3560,13 +3623,13 @@
         <v>439676</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>794</v>
@@ -3575,13 +3638,13 @@
         <v>835287</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3659,13 @@
         <v>397984</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -3611,13 +3674,13 @@
         <v>449352</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>779</v>
@@ -3626,13 +3689,13 @@
         <v>847336</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3700,13 +3763,13 @@
         <v>38233</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3715,13 +3778,13 @@
         <v>15770</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -3730,13 +3793,13 @@
         <v>54004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3814,13 @@
         <v>112965</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -3766,13 +3829,13 @@
         <v>48735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>160</v>
@@ -3781,13 +3844,13 @@
         <v>161699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3865,13 @@
         <v>299932</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>350</v>
@@ -3817,13 +3880,13 @@
         <v>344525</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>631</v>
@@ -3832,13 +3895,13 @@
         <v>644456</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3916,13 @@
         <v>219106</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>264</v>
@@ -3868,13 +3931,13 @@
         <v>262281</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>472</v>
@@ -3883,13 +3946,13 @@
         <v>481388</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +4008,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3957,13 +4020,13 @@
         <v>43804</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -3972,13 +4035,13 @@
         <v>23490</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -3987,10 +4050,10 @@
         <v>67294</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>166</v>
@@ -4092,10 +4155,10 @@
         <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4173,13 @@
         <v>402240</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -4125,13 +4188,13 @@
         <v>535826</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>925</v>
@@ -4140,13 +4203,13 @@
         <v>938065</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4277,13 @@
         <v>148019</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -4229,13 +4292,13 @@
         <v>54994</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>202</v>
@@ -4244,10 +4307,10 @@
         <v>203012</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>51</v>
@@ -4265,13 +4328,13 @@
         <v>398014</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -4280,13 +4343,13 @@
         <v>191642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>582</v>
@@ -4295,13 +4358,13 @@
         <v>589656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4379,13 @@
         <v>1358403</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>1517</v>
@@ -4331,13 +4394,13 @@
         <v>1541061</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>2862</v>
@@ -4346,13 +4409,13 @@
         <v>2899464</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4430,13 @@
         <v>1327127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>1473</v>
@@ -4382,13 +4445,13 @@
         <v>1531062</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>2764</v>
@@ -4397,13 +4460,13 @@
         <v>2858190</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,7 +4522,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446AA68-C297-4231-9C6B-33B4E57E7022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFE2D63-5695-471A-804E-1708C78E21CE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,7 +4560,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4604,13 +4667,13 @@
         <v>10717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4619,13 +4682,13 @@
         <v>1057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4634,13 +4697,13 @@
         <v>11774</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4718,13 @@
         <v>4181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4670,13 +4733,13 @@
         <v>6340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4685,13 +4748,13 @@
         <v>10521</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4769,13 @@
         <v>71788</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -4721,13 +4784,13 @@
         <v>80121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>146</v>
@@ -4736,13 +4799,13 @@
         <v>151909</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4820,13 @@
         <v>28218</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4772,13 +4835,13 @@
         <v>24387</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4787,13 +4850,13 @@
         <v>52604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4924,13 @@
         <v>40485</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4876,13 +4939,13 @@
         <v>16177</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -4891,13 +4954,13 @@
         <v>56662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4975,13 @@
         <v>96536</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4927,13 +4990,13 @@
         <v>27829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
@@ -4942,13 +5005,13 @@
         <v>124365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +5026,13 @@
         <v>316530</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>356</v>
@@ -4978,13 +5041,13 @@
         <v>376044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -4993,13 +5056,13 @@
         <v>692574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5077,13 @@
         <v>134153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -5029,13 +5092,13 @@
         <v>165095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M12" s="7">
         <v>280</v>
@@ -5044,13 +5107,13 @@
         <v>299248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5181,13 @@
         <v>68157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5133,13 +5196,13 @@
         <v>14253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5148,13 +5211,13 @@
         <v>82410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5232,13 @@
         <v>164235</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -5184,10 +5247,10 @@
         <v>70918</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>308</v>
@@ -5363,7 +5426,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5390,13 +5453,13 @@
         <v>15011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -5405,13 +5468,13 @@
         <v>84504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5489,13 @@
         <v>168260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -5441,13 +5504,13 @@
         <v>48187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>195</v>
@@ -5456,13 +5519,13 @@
         <v>216447</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5540,13 @@
         <v>362510</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H21" s="7">
         <v>443</v>
@@ -5492,13 +5555,13 @@
         <v>494126</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M21" s="7">
         <v>771</v>
@@ -5507,13 +5570,13 @@
         <v>856637</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5591,13 @@
         <v>157360</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -5543,13 +5606,13 @@
         <v>218752</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>348</v>
@@ -5558,13 +5621,13 @@
         <v>376112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,7 +5683,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5632,13 +5695,13 @@
         <v>97506</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -5647,13 +5710,13 @@
         <v>23693</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="M24" s="7">
         <v>121</v>
@@ -5662,13 +5725,13 @@
         <v>121199</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>267</v>
+        <v>371</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>365</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5746,13 @@
         <v>166997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -5698,13 +5761,13 @@
         <v>79326</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -5713,13 +5776,13 @@
         <v>246323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5797,13 @@
         <v>477116</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H26" s="7">
         <v>598</v>
@@ -5749,13 +5812,13 @@
         <v>630186</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M26" s="7">
         <v>1053</v>
@@ -5764,13 +5827,13 @@
         <v>1107303</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5848,13 @@
         <v>205223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H27" s="7">
         <v>307</v>
@@ -5800,13 +5863,13 @@
         <v>318696</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M27" s="7">
         <v>500</v>
@@ -5815,13 +5878,13 @@
         <v>523919</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5952,13 @@
         <v>286358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -5904,13 +5967,13 @@
         <v>70191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>14</v>
+        <v>403</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M29" s="7">
         <v>344</v>
@@ -5919,13 +5982,13 @@
         <v>356548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>264</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +6003,13 @@
         <v>600210</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
         <v>215</v>
@@ -5958,10 +6021,10 @@
         <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>410</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="M30" s="7">
         <v>779</v>
@@ -5970,13 +6033,13 @@
         <v>832810</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,28 +6054,28 @@
         <v>1768725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H31" s="7">
         <v>1992</v>
       </c>
       <c r="I31" s="7">
-        <v>2153591</v>
+        <v>2153592</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M31" s="7">
         <v>3639</v>
@@ -6021,13 +6084,13 @@
         <v>3922316</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6105,13 @@
         <v>769729</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H32" s="7">
         <v>1026</v>
@@ -6057,13 +6120,13 @@
         <v>1100829</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="M32" s="7">
         <v>1742</v>
@@ -6072,13 +6135,13 @@
         <v>1870558</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,7 +6168,7 @@
         <v>3297</v>
       </c>
       <c r="I33" s="7">
-        <v>3557211</v>
+        <v>3557212</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>49</v>
@@ -6134,7 +6197,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6155,7 +6218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B4E981-AE4F-4E37-855D-73C1286056BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890C1B77-607F-4937-93DA-720C6D7F4644}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6172,7 +6235,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6279,13 +6342,13 @@
         <v>4049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6294,13 +6357,13 @@
         <v>1025</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6309,13 +6372,13 @@
         <v>5074</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>430</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6393,13 @@
         <v>17812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -6345,13 +6408,13 @@
         <v>11681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6360,13 +6423,13 @@
         <v>29493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6444,13 @@
         <v>64426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H6" s="7">
         <v>57</v>
@@ -6396,13 +6459,13 @@
         <v>57001</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>120</v>
+        <v>451</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>452</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M6" s="7">
         <v>119</v>
@@ -6411,13 +6474,13 @@
         <v>121428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6495,13 @@
         <v>30259</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -6447,13 +6510,13 @@
         <v>43652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -6462,13 +6525,13 @@
         <v>73911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6599,13 @@
         <v>16069</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6551,13 +6614,13 @@
         <v>5973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>333</v>
+        <v>468</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -6566,13 +6629,13 @@
         <v>22042</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6650,13 @@
         <v>103599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -6602,13 +6665,13 @@
         <v>39403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -6617,13 +6680,13 @@
         <v>143002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6701,13 @@
         <v>230648</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="H11" s="7">
         <v>250</v>
@@ -6653,13 +6716,13 @@
         <v>248297</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="M11" s="7">
         <v>473</v>
@@ -6668,13 +6731,13 @@
         <v>478944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6752,13 @@
         <v>207939</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="H12" s="7">
         <v>255</v>
@@ -6704,13 +6767,13 @@
         <v>265807</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="M12" s="7">
         <v>455</v>
@@ -6719,13 +6782,13 @@
         <v>473746</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6856,13 @@
         <v>87787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>488</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -6808,13 +6871,13 @@
         <v>24175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -6823,13 +6886,13 @@
         <v>111962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6907,13 @@
         <v>176808</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="H15" s="7">
         <v>102</v>
@@ -6859,13 +6922,13 @@
         <v>110159</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>511</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="M15" s="7">
         <v>263</v>
@@ -6874,13 +6937,13 @@
         <v>286967</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6958,13 @@
         <v>398827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="H16" s="7">
         <v>436</v>
@@ -6910,13 +6973,13 @@
         <v>460035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>808</v>
@@ -6925,13 +6988,13 @@
         <v>858863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +7009,13 @@
         <v>359008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
         <v>414</v>
@@ -6961,13 +7024,13 @@
         <v>448543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>753</v>
@@ -6976,13 +7039,13 @@
         <v>807552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>517</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7101,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7050,13 +7113,13 @@
         <v>49107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>430</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -7065,13 +7128,13 @@
         <v>19942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>502</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -7080,13 +7143,13 @@
         <v>69048</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7164,13 @@
         <v>122087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -7116,13 +7179,13 @@
         <v>70344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>177</v>
@@ -7131,13 +7194,13 @@
         <v>192431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7215,13 @@
         <v>336189</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="H21" s="7">
         <v>362</v>
@@ -7167,13 +7230,13 @@
         <v>382659</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="M21" s="7">
         <v>670</v>
@@ -7182,13 +7245,13 @@
         <v>718848</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7266,13 @@
         <v>252170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -7218,13 +7281,13 @@
         <v>312067</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>519</v>
@@ -7233,13 +7296,13 @@
         <v>564236</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,7 +7358,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7307,13 +7370,13 @@
         <v>86587</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7322,13 +7385,13 @@
         <v>23756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>14</v>
+        <v>403</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -7337,13 +7400,13 @@
         <v>110342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7421,13 @@
         <v>165900</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -7373,13 +7436,13 @@
         <v>110632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
         <v>272</v>
@@ -7388,13 +7451,13 @@
         <v>276531</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7472,13 @@
         <v>386512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>432</v>
@@ -7424,13 +7487,13 @@
         <v>465094</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="M26" s="7">
         <v>816</v>
@@ -7439,13 +7502,13 @@
         <v>851606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7523,13 @@
         <v>298569</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="H27" s="7">
         <v>398</v>
@@ -7475,13 +7538,13 @@
         <v>444298</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>578</v>
+        <v>326</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="M27" s="7">
         <v>696</v>
@@ -7490,13 +7553,13 @@
         <v>742867</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7627,13 @@
         <v>243598</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -7579,13 +7642,13 @@
         <v>74870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>587</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="M29" s="7">
         <v>304</v>
@@ -7594,13 +7657,13 @@
         <v>318468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>589</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>591</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7678,13 @@
         <v>586205</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>525</v>
+        <v>602</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>461</v>
+        <v>603</v>
       </c>
       <c r="H30" s="7">
         <v>330</v>
@@ -7630,13 +7693,13 @@
         <v>342218</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>594</v>
+        <v>278</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="M30" s="7">
         <v>883</v>
@@ -7645,13 +7708,13 @@
         <v>928424</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>275</v>
+        <v>607</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7729,13 @@
         <v>1416602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="H31" s="7">
         <v>1537</v>
@@ -7681,13 +7744,13 @@
         <v>1613086</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="M31" s="7">
         <v>2886</v>
@@ -7696,13 +7759,13 @@
         <v>3029688</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7780,13 @@
         <v>1147944</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="H32" s="7">
         <v>1396</v>
@@ -7732,13 +7795,13 @@
         <v>1514368</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="M32" s="7">
         <v>2496</v>
@@ -7747,13 +7810,13 @@
         <v>2662312</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>582</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,7 +7872,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7830,7 +7893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD0E2AA-4B3F-4DF6-8B18-096FB9F3710D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD3B88E-E2B4-4D92-A871-1984D9E9A2F0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7847,7 +7910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7954,13 +8017,13 @@
         <v>10469</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>489</v>
+        <v>628</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>615</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -7969,13 +8032,13 @@
         <v>5020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>521</v>
+        <v>630</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>617</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -7984,13 +8047,13 @@
         <v>15489</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +8068,13 @@
         <v>12924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -8020,13 +8083,13 @@
         <v>6081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>56</v>
+        <v>638</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>437</v>
+        <v>639</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -8035,13 +8098,13 @@
         <v>19005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>640</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8119,13 @@
         <v>42433</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="H6" s="7">
         <v>138</v>
@@ -8071,13 +8134,13 @@
         <v>71694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>191</v>
@@ -8086,13 +8149,13 @@
         <v>114127</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>633</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8170,13 @@
         <v>33387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>649</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -8122,13 +8185,13 @@
         <v>47938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="M7" s="7">
         <v>131</v>
@@ -8137,13 +8200,13 @@
         <v>81325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8274,13 @@
         <v>31071</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -8226,13 +8289,13 @@
         <v>19064</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>661</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>398</v>
+        <v>663</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -8241,13 +8304,13 @@
         <v>50135</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>646</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>648</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8325,13 @@
         <v>67197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -8277,13 +8340,13 @@
         <v>49973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -8292,13 +8355,13 @@
         <v>117170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8376,13 @@
         <v>240283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>674</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>675</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="H11" s="7">
         <v>515</v>
@@ -8328,13 +8391,13 @@
         <v>296222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>678</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="M11" s="7">
         <v>816</v>
@@ -8343,13 +8406,13 @@
         <v>536505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>681</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8427,13 @@
         <v>211272</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="H12" s="7">
         <v>390</v>
@@ -8379,13 +8442,13 @@
         <v>226894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="M12" s="7">
         <v>619</v>
@@ -8394,13 +8457,13 @@
         <v>438165</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>154</v>
+        <v>689</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8468,13 +8531,13 @@
         <v>92683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>691</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -8483,13 +8546,13 @@
         <v>52543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>693</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>620</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -8498,13 +8561,13 @@
         <v>145227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>642</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>674</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8582,13 @@
         <v>161471</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>675</v>
+        <v>696</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>200</v>
+        <v>574</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>305</v>
+        <v>697</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -8534,13 +8597,13 @@
         <v>70633</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>556</v>
+        <v>698</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="M15" s="7">
         <v>209</v>
@@ -8549,13 +8612,13 @@
         <v>232104</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>680</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,10 +8636,10 @@
         <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>702</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="H16" s="7">
         <v>787</v>
@@ -8585,13 +8648,13 @@
         <v>533513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="M16" s="7">
         <v>1224</v>
@@ -8600,13 +8663,13 @@
         <v>989275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8684,13 @@
         <v>326511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="H17" s="7">
         <v>581</v>
@@ -8636,13 +8699,13 @@
         <v>402004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="M17" s="7">
         <v>914</v>
@@ -8651,13 +8714,13 @@
         <v>728516</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8713,7 +8776,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8725,13 +8788,13 @@
         <v>99295</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -8740,13 +8803,13 @@
         <v>54997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>701</v>
+        <v>533</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -8755,13 +8818,13 @@
         <v>154292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>702</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>621</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,13 +8839,13 @@
         <v>83611</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>724</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -8791,13 +8854,13 @@
         <v>48126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>727</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>706</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -8806,13 +8869,13 @@
         <v>131737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8890,13 @@
         <v>294757</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>712</v>
+        <v>581</v>
       </c>
       <c r="H21" s="7">
         <v>443</v>
@@ -8842,13 +8905,13 @@
         <v>420772</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="M21" s="7">
         <v>735</v>
@@ -8857,13 +8920,13 @@
         <v>715529</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>685</v>
+        <v>735</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8941,13 @@
         <v>249990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="H22" s="7">
         <v>477</v>
@@ -8893,13 +8956,13 @@
         <v>347713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="M22" s="7">
         <v>730</v>
@@ -8908,13 +8971,13 @@
         <v>597703</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8970,7 +9033,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8982,13 +9045,13 @@
         <v>180391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="H24" s="7">
         <v>164</v>
@@ -8997,13 +9060,13 @@
         <v>130902</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="M24" s="7">
         <v>319</v>
@@ -9012,13 +9075,13 @@
         <v>311293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>754</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9033,13 +9096,13 @@
         <v>98291</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>757</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -9048,13 +9111,13 @@
         <v>63238</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -9063,13 +9126,13 @@
         <v>161529</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,13 +9147,13 @@
         <v>403735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="H26" s="7">
         <v>692</v>
@@ -9099,13 +9162,13 @@
         <v>492093</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>768</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>746</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="M26" s="7">
         <v>1144</v>
@@ -9114,13 +9177,13 @@
         <v>895828</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9198,13 @@
         <v>279715</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>452</v>
+        <v>775</v>
       </c>
       <c r="H27" s="7">
         <v>630</v>
@@ -9150,13 +9213,13 @@
         <v>458308</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="M27" s="7">
         <v>934</v>
@@ -9165,13 +9228,13 @@
         <v>738022</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9239,13 +9302,13 @@
         <v>413909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="H29" s="7">
         <v>330</v>
@@ -9254,13 +9317,13 @@
         <v>262526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>740</v>
+        <v>786</v>
       </c>
       <c r="M29" s="7">
         <v>661</v>
@@ -9269,13 +9332,13 @@
         <v>676435</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>594</v>
+        <v>724</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9290,13 +9353,13 @@
         <v>423494</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>657</v>
+        <v>512</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>766</v>
+        <v>670</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="H30" s="7">
         <v>279</v>
@@ -9305,13 +9368,13 @@
         <v>238051</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>769</v>
+        <v>65</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>770</v>
+        <v>636</v>
       </c>
       <c r="M30" s="7">
         <v>619</v>
@@ -9320,13 +9383,13 @@
         <v>661545</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>393</v>
+        <v>639</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>310</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,13 +9404,13 @@
         <v>1436970</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>692</v>
+        <v>730</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>772</v>
+        <v>490</v>
       </c>
       <c r="H31" s="7">
         <v>2575</v>
@@ -9356,13 +9419,13 @@
         <v>1814294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>601</v>
+        <v>794</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="M31" s="7">
         <v>4110</v>
@@ -9371,13 +9434,13 @@
         <v>3251264</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>775</v>
+        <v>484</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9455,13 @@
         <v>1100874</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="H32" s="7">
         <v>2167</v>
@@ -9407,13 +9470,13 @@
         <v>1482857</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>780</v>
+        <v>563</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>610</v>
+        <v>802</v>
       </c>
       <c r="M32" s="7">
         <v>3328</v>
@@ -9422,13 +9485,13 @@
         <v>2583731</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9484,7 +9547,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E266427-632E-4221-81E0-A9AAB92C83A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D15837C-E7B5-4AC5-A35A-CB8AE7E0751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C304039-0F7F-4B52-9122-C8D5C1FD1CC3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A56B860C-1527-4149-B088-8CB7578BB426}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="809">
   <si>
     <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Entrenamiento físico varias veces a la semana</t>
@@ -77,10 +77,10 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -89,7 +89,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>3,03%</t>
@@ -98,7 +98,7 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>6,65%</t>
+    <t>6,85%</t>
   </si>
   <si>
     <t>Actividad física regular, varias veces al mes</t>
@@ -110,2338 +110,2347 @@
     <t>1,83%</t>
   </si>
   <si>
-    <t>10,37%</t>
+    <t>10,51%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>Alguna actividad física o deportiva ocasional</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>Alguna actividad física o deportiva ocasional</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>45,33%</t>
   </si>
   <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
   </si>
   <si>
     <t>39,05%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
   </si>
   <si>
     <t>35,19%</t>
@@ -2868,7 +2877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B5F5E6-CDF4-4A5B-AE14-9E16439A4CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22AFB74-B9B9-4315-BDD0-40BC9A1878B4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3384,10 +3393,10 @@
         <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3411,13 @@
         <v>253781</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>246</v>
@@ -3417,13 +3426,13 @@
         <v>248649</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>500</v>
@@ -3432,13 +3441,13 @@
         <v>502430</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,7 +3503,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3506,13 +3515,13 @@
         <v>40276</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3521,13 +3530,13 @@
         <v>7563</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3536,13 +3545,13 @@
         <v>47840</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3566,13 @@
         <v>111117</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -3572,13 +3581,13 @@
         <v>55435</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -3587,13 +3596,13 @@
         <v>166552</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3617,13 @@
         <v>395612</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>416</v>
@@ -3623,13 +3632,13 @@
         <v>439676</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>794</v>
@@ -3638,13 +3647,13 @@
         <v>835287</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3668,13 @@
         <v>397984</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -3674,13 +3683,13 @@
         <v>449352</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>779</v>
@@ -3689,13 +3698,13 @@
         <v>847336</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3760,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3763,13 +3772,13 @@
         <v>38233</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3778,7 +3787,7 @@
         <v>15770</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>126</v>
@@ -3799,7 +3808,7 @@
         <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3823,13 @@
         <v>112965</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -3829,13 +3838,13 @@
         <v>48735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>160</v>
@@ -3844,13 +3853,13 @@
         <v>161699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3874,13 @@
         <v>299932</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>350</v>
@@ -3880,13 +3889,13 @@
         <v>344525</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>631</v>
@@ -3895,13 +3904,13 @@
         <v>644456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3925,13 @@
         <v>219106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>264</v>
@@ -3931,13 +3940,13 @@
         <v>262281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>472</v>
@@ -4313,7 +4322,7 @@
         <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4337,13 @@
         <v>398014</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -4343,13 +4352,13 @@
         <v>191642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>582</v>
@@ -4358,13 +4367,13 @@
         <v>589656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4388,13 @@
         <v>1358403</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>1517</v>
@@ -4394,10 +4403,10 @@
         <v>1541061</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>216</v>
@@ -4448,10 +4457,10 @@
         <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>2764</v>
@@ -4460,13 +4469,13 @@
         <v>2858190</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,7 +4531,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4543,7 +4552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFE2D63-5695-471A-804E-1708C78E21CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A360777-09B6-4895-AF53-E68B6C3C14EA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4560,7 +4569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4667,10 +4676,10 @@
         <v>10717</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>232</v>
@@ -4718,13 +4727,13 @@
         <v>4181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4733,13 +4742,13 @@
         <v>6340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4748,13 +4757,13 @@
         <v>10521</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4778,13 @@
         <v>71788</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -4784,13 +4793,13 @@
         <v>80121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>146</v>
@@ -4799,13 +4808,13 @@
         <v>151909</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4829,13 @@
         <v>28218</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4835,13 +4844,13 @@
         <v>24387</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4850,13 +4859,13 @@
         <v>52604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4933,13 @@
         <v>40485</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4939,13 +4948,13 @@
         <v>16177</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -4957,10 +4966,10 @@
         <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4984,13 @@
         <v>96536</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4990,13 +4999,13 @@
         <v>27829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
@@ -5005,13 +5014,13 @@
         <v>124365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5035,13 @@
         <v>316530</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>356</v>
@@ -5041,13 +5050,13 @@
         <v>376044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -5056,13 +5065,13 @@
         <v>692574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5086,13 @@
         <v>134153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -5092,13 +5101,13 @@
         <v>165095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>280</v>
@@ -5107,13 +5116,13 @@
         <v>299248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,7 +5178,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5181,13 +5190,13 @@
         <v>68157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5196,13 +5205,13 @@
         <v>14253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5211,13 +5220,13 @@
         <v>82410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5241,13 @@
         <v>164235</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -5247,13 +5256,13 @@
         <v>70918</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M15" s="7">
         <v>217</v>
@@ -5262,13 +5271,13 @@
         <v>235153</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5292,13 @@
         <v>540780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>526</v>
@@ -5298,13 +5307,13 @@
         <v>573114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>1019</v>
@@ -5313,13 +5322,13 @@
         <v>1113893</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5343,13 @@
         <v>244775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -5349,13 +5358,13 @@
         <v>373899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>563</v>
@@ -5364,13 +5373,13 @@
         <v>618675</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,7 +5435,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5438,13 +5447,13 @@
         <v>69493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5453,13 +5462,13 @@
         <v>15011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -5468,13 +5477,13 @@
         <v>84504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5498,13 @@
         <v>168260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -5504,13 +5513,13 @@
         <v>48187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>195</v>
@@ -5519,13 +5528,13 @@
         <v>216447</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5549,13 @@
         <v>362510</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>443</v>
@@ -5555,13 +5564,13 @@
         <v>494126</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7">
         <v>771</v>
@@ -5570,13 +5579,13 @@
         <v>856637</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5600,13 @@
         <v>157360</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -5606,13 +5615,13 @@
         <v>218752</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>348</v>
@@ -5621,13 +5630,13 @@
         <v>376112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5704,13 @@
         <v>97506</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -5710,13 +5719,13 @@
         <v>23693</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M24" s="7">
         <v>121</v>
@@ -5725,13 +5734,13 @@
         <v>121199</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>206</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5755,13 @@
         <v>166997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -5761,13 +5770,13 @@
         <v>79326</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -5776,13 +5785,13 @@
         <v>246323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5806,13 @@
         <v>477116</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>598</v>
@@ -5812,28 +5821,28 @@
         <v>630186</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>1053</v>
       </c>
       <c r="N26" s="7">
-        <v>1107303</v>
+        <v>1107302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5857,13 @@
         <v>205223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H27" s="7">
         <v>307</v>
@@ -5863,13 +5872,13 @@
         <v>318696</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M27" s="7">
         <v>500</v>
@@ -5878,13 +5887,13 @@
         <v>523919</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,7 +5935,7 @@
         <v>1912</v>
       </c>
       <c r="N28" s="7">
-        <v>1998744</v>
+        <v>1998743</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -5952,13 +5961,13 @@
         <v>286358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>399</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -5967,13 +5976,13 @@
         <v>70191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M29" s="7">
         <v>344</v>
@@ -5982,13 +5991,13 @@
         <v>356548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>264</v>
+        <v>408</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6012,13 @@
         <v>600210</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H30" s="7">
         <v>215</v>
@@ -6021,10 +6030,10 @@
         <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>779</v>
@@ -6033,13 +6042,13 @@
         <v>832810</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,28 +6063,28 @@
         <v>1768725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H31" s="7">
         <v>1992</v>
       </c>
       <c r="I31" s="7">
-        <v>2153592</v>
+        <v>2153591</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M31" s="7">
         <v>3639</v>
@@ -6084,13 +6093,13 @@
         <v>3922316</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6114,13 @@
         <v>769729</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>1026</v>
@@ -6120,13 +6129,13 @@
         <v>1100829</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M32" s="7">
         <v>1742</v>
@@ -6135,13 +6144,13 @@
         <v>1870558</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,7 +6177,7 @@
         <v>3297</v>
       </c>
       <c r="I33" s="7">
-        <v>3557212</v>
+        <v>3557211</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>49</v>
@@ -6197,7 +6206,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6218,7 +6227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890C1B77-607F-4937-93DA-720C6D7F4644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DB3A6-90E7-4720-9ABD-0B842242AD6A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6235,7 +6244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6345,10 +6354,10 @@
         <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>435</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6357,13 +6366,13 @@
         <v>1025</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6372,13 +6381,13 @@
         <v>5074</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6402,13 @@
         <v>17812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -6408,13 +6417,13 @@
         <v>11681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6423,13 +6432,13 @@
         <v>29493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6453,13 @@
         <v>64426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H6" s="7">
         <v>57</v>
@@ -6459,13 +6468,13 @@
         <v>57001</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M6" s="7">
         <v>119</v>
@@ -6474,13 +6483,13 @@
         <v>121428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6504,13 @@
         <v>30259</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -6510,13 +6519,13 @@
         <v>43652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -6525,13 +6534,13 @@
         <v>73911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6608,13 @@
         <v>16069</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>470</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6614,13 +6623,13 @@
         <v>5973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -6629,13 +6638,13 @@
         <v>22042</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,13 +6659,13 @@
         <v>103599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -6665,13 +6674,13 @@
         <v>39403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -6680,13 +6689,13 @@
         <v>143002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,13 +6710,13 @@
         <v>230648</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>250</v>
@@ -6716,13 +6725,13 @@
         <v>248297</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>486</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>473</v>
@@ -6731,13 +6740,13 @@
         <v>478944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,13 +6761,13 @@
         <v>207939</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="H12" s="7">
         <v>255</v>
@@ -6844,7 +6853,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6859,10 +6868,10 @@
         <v>500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>501</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -6874,10 +6883,10 @@
         <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -6886,13 +6895,13 @@
         <v>111962</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6916,13 @@
         <v>176808</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H15" s="7">
         <v>102</v>
@@ -6922,13 +6931,13 @@
         <v>110159</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M15" s="7">
         <v>263</v>
@@ -6937,13 +6946,13 @@
         <v>286967</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,13 +6967,13 @@
         <v>398827</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H16" s="7">
         <v>436</v>
@@ -6973,13 +6982,13 @@
         <v>460035</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>808</v>
@@ -7027,10 +7036,10 @@
         <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>753</v>
@@ -7039,13 +7048,13 @@
         <v>807552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,7 +7110,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7113,13 +7122,13 @@
         <v>49107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -7128,13 +7137,13 @@
         <v>19942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>502</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -7143,13 +7152,13 @@
         <v>69048</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>537</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7173,13 @@
         <v>122087</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -7179,13 +7188,13 @@
         <v>70344</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>177</v>
@@ -7194,13 +7203,13 @@
         <v>192431</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,10 +7227,10 @@
         <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>549</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>362</v>
@@ -7230,13 +7239,13 @@
         <v>382659</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M21" s="7">
         <v>670</v>
@@ -7245,13 +7254,13 @@
         <v>718848</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7275,13 @@
         <v>252170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -7281,13 +7290,13 @@
         <v>312067</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>519</v>
@@ -7296,13 +7305,13 @@
         <v>564236</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7379,13 @@
         <v>86587</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7385,10 +7394,10 @@
         <v>23756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>470</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>403</v>
+        <v>566</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>567</v>
@@ -7403,10 +7412,10 @@
         <v>568</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>194</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7430,13 @@
         <v>165900</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -7436,13 +7445,13 @@
         <v>110632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M25" s="7">
         <v>272</v>
@@ -7451,13 +7460,13 @@
         <v>276531</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7481,13 @@
         <v>386512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H26" s="7">
         <v>432</v>
@@ -7487,13 +7496,13 @@
         <v>465094</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M26" s="7">
         <v>816</v>
@@ -7502,13 +7511,13 @@
         <v>851606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,13 +7532,13 @@
         <v>298569</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H27" s="7">
         <v>398</v>
@@ -7538,13 +7547,13 @@
         <v>444298</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>326</v>
+        <v>592</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M27" s="7">
         <v>696</v>
@@ -7553,13 +7562,13 @@
         <v>742867</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7636,13 @@
         <v>243598</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -7642,13 +7651,13 @@
         <v>74870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>601</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M29" s="7">
         <v>304</v>
@@ -7657,13 +7666,13 @@
         <v>318468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>342</v>
+        <v>603</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>264</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7687,13 @@
         <v>586205</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="H30" s="7">
         <v>330</v>
@@ -7693,13 +7702,13 @@
         <v>342218</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>278</v>
+        <v>610</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="M30" s="7">
         <v>883</v>
@@ -7708,13 +7717,13 @@
         <v>928424</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>607</v>
+        <v>371</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7738,13 @@
         <v>1416602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H31" s="7">
         <v>1537</v>
@@ -7744,13 +7753,13 @@
         <v>1613086</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>613</v>
+        <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="M31" s="7">
         <v>2886</v>
@@ -7759,13 +7768,13 @@
         <v>3029688</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,13 +7789,13 @@
         <v>1147944</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H32" s="7">
         <v>1396</v>
@@ -7795,13 +7804,13 @@
         <v>1514368</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="M32" s="7">
         <v>2496</v>
@@ -7810,13 +7819,13 @@
         <v>2662312</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,7 +7881,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7893,7 +7902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD3B88E-E2B4-4D92-A871-1984D9E9A2F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830EB7E4-D933-4D8C-BA9E-7E2F3A91F483}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7910,7 +7919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8017,13 +8026,13 @@
         <v>10469</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -8032,13 +8041,13 @@
         <v>5020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -8047,13 +8056,13 @@
         <v>15489</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>633</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8077,13 @@
         <v>12924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -8083,13 +8092,13 @@
         <v>6081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>641</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>639</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -8098,13 +8107,13 @@
         <v>19005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8128,13 @@
         <v>42433</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H6" s="7">
         <v>138</v>
@@ -8134,13 +8143,13 @@
         <v>71694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>651</v>
       </c>
       <c r="M6" s="7">
         <v>191</v>
@@ -8149,13 +8158,13 @@
         <v>114127</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>416</v>
+        <v>652</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8170,13 +8179,13 @@
         <v>33387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -8185,13 +8194,13 @@
         <v>47938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="M7" s="7">
         <v>131</v>
@@ -8200,13 +8209,13 @@
         <v>81325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,13 +8283,13 @@
         <v>31071</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -8289,13 +8298,13 @@
         <v>19064</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -8304,13 +8313,13 @@
         <v>50135</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>669</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>664</v>
+        <v>339</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>538</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,13 +8334,13 @@
         <v>67197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -8340,13 +8349,13 @@
         <v>49973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -8355,13 +8364,13 @@
         <v>117170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,13 +8385,13 @@
         <v>240283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>675</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="H11" s="7">
         <v>515</v>
@@ -8391,13 +8400,13 @@
         <v>296222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="M11" s="7">
         <v>816</v>
@@ -8406,13 +8415,13 @@
         <v>536505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>681</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8427,13 +8436,13 @@
         <v>211272</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H12" s="7">
         <v>390</v>
@@ -8442,13 +8451,13 @@
         <v>226894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>688</v>
+        <v>583</v>
       </c>
       <c r="M12" s="7">
         <v>619</v>
@@ -8457,13 +8466,13 @@
         <v>438165</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,7 +8528,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8531,13 +8540,13 @@
         <v>92683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -8546,13 +8555,13 @@
         <v>52543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -8561,13 +8570,13 @@
         <v>145227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>699</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8582,13 +8591,13 @@
         <v>161471</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>574</v>
+        <v>702</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -8597,13 +8606,13 @@
         <v>70633</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>699</v>
+        <v>135</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M15" s="7">
         <v>209</v>
@@ -8612,13 +8621,13 @@
         <v>232104</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,13 +8642,13 @@
         <v>455762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>702</v>
+        <v>630</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H16" s="7">
         <v>787</v>
@@ -8648,13 +8657,13 @@
         <v>533513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="M16" s="7">
         <v>1224</v>
@@ -8663,13 +8672,13 @@
         <v>989275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8684,13 +8693,13 @@
         <v>326511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H17" s="7">
         <v>581</v>
@@ -8699,13 +8708,13 @@
         <v>402004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="M17" s="7">
         <v>914</v>
@@ -8714,13 +8723,13 @@
         <v>728516</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,7 +8785,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8788,13 +8797,13 @@
         <v>99295</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -8803,13 +8812,13 @@
         <v>54997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>533</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -8818,13 +8827,13 @@
         <v>154292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>727</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8839,13 +8848,13 @@
         <v>83611</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>724</v>
+        <v>574</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -8854,13 +8863,13 @@
         <v>48126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>733</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -8869,13 +8878,13 @@
         <v>131737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,13 +8899,13 @@
         <v>294757</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>730</v>
+        <v>546</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H21" s="7">
         <v>443</v>
@@ -8905,13 +8914,13 @@
         <v>420772</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="M21" s="7">
         <v>735</v>
@@ -8920,13 +8929,13 @@
         <v>715529</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,13 +8950,13 @@
         <v>249990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="H22" s="7">
         <v>477</v>
@@ -8956,13 +8965,13 @@
         <v>347713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="M22" s="7">
         <v>730</v>
@@ -8971,13 +8980,13 @@
         <v>597703</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9045,13 +9054,13 @@
         <v>180391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="H24" s="7">
         <v>164</v>
@@ -9060,13 +9069,13 @@
         <v>130902</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="M24" s="7">
         <v>319</v>
@@ -9075,13 +9084,13 @@
         <v>311293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9096,13 +9105,13 @@
         <v>98291</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>757</v>
+        <v>61</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -9111,13 +9120,13 @@
         <v>63238</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -9126,13 +9135,13 @@
         <v>161529</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9147,13 +9156,13 @@
         <v>403735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H26" s="7">
         <v>692</v>
@@ -9162,13 +9171,13 @@
         <v>492093</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>773</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>769</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>1144</v>
@@ -9177,13 +9186,13 @@
         <v>895828</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9198,13 +9207,13 @@
         <v>279715</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="H27" s="7">
         <v>630</v>
@@ -9213,13 +9222,13 @@
         <v>458308</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>776</v>
+        <v>615</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="M27" s="7">
         <v>934</v>
@@ -9228,13 +9237,13 @@
         <v>738022</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9302,13 +9311,13 @@
         <v>413909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="H29" s="7">
         <v>330</v>
@@ -9317,13 +9326,13 @@
         <v>262526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="M29" s="7">
         <v>661</v>
@@ -9332,13 +9341,13 @@
         <v>676435</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>724</v>
+        <v>574</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9353,13 +9362,13 @@
         <v>423494</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="H30" s="7">
         <v>279</v>
@@ -9368,13 +9377,13 @@
         <v>238051</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>790</v>
+        <v>271</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>65</v>
+        <v>793</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="M30" s="7">
         <v>619</v>
@@ -9383,13 +9392,13 @@
         <v>661545</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>791</v>
+        <v>136</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>639</v>
+        <v>347</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9404,13 +9413,13 @@
         <v>1436970</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>730</v>
+        <v>546</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>490</v>
+        <v>795</v>
       </c>
       <c r="H31" s="7">
         <v>2575</v>
@@ -9419,13 +9428,13 @@
         <v>1814294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>793</v>
+        <v>144</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="M31" s="7">
         <v>4110</v>
@@ -9434,13 +9443,13 @@
         <v>3251264</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>484</v>
+        <v>798</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>796</v>
+        <v>558</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9455,13 +9464,13 @@
         <v>1100874</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="H32" s="7">
         <v>2167</v>
@@ -9470,13 +9479,13 @@
         <v>1482857</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>563</v>
+        <v>803</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="M32" s="7">
         <v>3328</v>
@@ -9485,13 +9494,13 @@
         <v>2583731</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9547,7 +9556,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D15837C-E7B5-4AC5-A35A-CB8AE7E0751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70644B90-001A-4524-B9FC-337D639E3CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A56B860C-1527-4149-B088-8CB7578BB426}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFA0AFBC-B0F0-4F7E-A570-958867B812A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="785">
   <si>
     <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2007 (Tasa respuesta: 98,45%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>1,48%</t>
@@ -89,2383 +89,2311 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>Actividad física regular, varias veces al mes</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>Alguna actividad física o deportiva ocasional</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>Actividad física regular, varias veces al mes</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>Alguna actividad física o deportiva ocasional</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>56,15%</t>
   </si>
   <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>7,12%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
+    <t>45,43%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>52,72%</t>
   </si>
   <si>
     <t>45,33%</t>
   </si>
   <si>
-    <t>48,11%</t>
+    <t>43,83%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>35,53%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22AFB74-B9B9-4315-BDD0-40BC9A1878B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADE3B10-2B7C-4948-A27D-FA8AD2621AE7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3393,10 +3321,10 @@
         <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3339,13 @@
         <v>253781</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>246</v>
@@ -3426,13 +3354,13 @@
         <v>248649</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>500</v>
@@ -3441,13 +3369,13 @@
         <v>502430</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3431,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3515,13 +3443,13 @@
         <v>40276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3530,13 +3458,13 @@
         <v>7563</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3545,13 +3473,13 @@
         <v>47840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3494,13 @@
         <v>111117</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -3581,13 +3509,13 @@
         <v>55435</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -3596,13 +3524,13 @@
         <v>166552</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3545,13 @@
         <v>395612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>416</v>
@@ -3632,13 +3560,13 @@
         <v>439676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>794</v>
@@ -3647,13 +3575,13 @@
         <v>835287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3596,13 @@
         <v>397984</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -3683,13 +3611,13 @@
         <v>449352</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>779</v>
@@ -3698,13 +3626,13 @@
         <v>847336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3688,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3772,13 +3700,13 @@
         <v>38233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3787,13 +3715,13 @@
         <v>15770</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -3802,13 +3730,13 @@
         <v>54004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3751,13 @@
         <v>112965</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -3838,13 +3766,13 @@
         <v>48735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>160</v>
@@ -3853,13 +3781,13 @@
         <v>161699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3802,13 @@
         <v>299932</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>350</v>
@@ -3889,13 +3817,13 @@
         <v>344525</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>631</v>
@@ -3904,13 +3832,13 @@
         <v>644456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3853,13 @@
         <v>219106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>264</v>
@@ -3940,13 +3868,13 @@
         <v>262281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>472</v>
@@ -3955,13 +3883,13 @@
         <v>481388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +3945,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4029,13 +3957,13 @@
         <v>43804</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -4044,13 +3972,13 @@
         <v>23490</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -4059,10 +3987,10 @@
         <v>67294</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>166</v>
@@ -4164,10 +4092,10 @@
         <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4110,13 @@
         <v>402240</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -4197,13 +4125,13 @@
         <v>535826</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>925</v>
@@ -4212,13 +4140,13 @@
         <v>938065</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4214,13 @@
         <v>148019</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -4301,13 +4229,13 @@
         <v>54994</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>202</v>
@@ -4316,13 +4244,13 @@
         <v>203012</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4265,13 @@
         <v>398014</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>192</v>
@@ -4352,13 +4280,13 @@
         <v>191642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>582</v>
@@ -4367,13 +4295,13 @@
         <v>589656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4316,13 @@
         <v>1358403</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>1517</v>
@@ -4403,13 +4331,13 @@
         <v>1541061</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>2862</v>
@@ -4418,13 +4346,13 @@
         <v>2899464</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4367,13 @@
         <v>1327127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>1473</v>
@@ -4454,13 +4382,13 @@
         <v>1531062</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>2764</v>
@@ -4469,13 +4397,13 @@
         <v>2858190</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4459,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4552,7 +4480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A360777-09B6-4895-AF53-E68B6C3C14EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A78C6C-1729-44C9-AEB2-2E8EB43721F4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4569,7 +4497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4676,13 +4604,13 @@
         <v>10717</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4691,13 +4619,13 @@
         <v>1057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4706,13 +4634,13 @@
         <v>11774</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4655,13 @@
         <v>4181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4742,13 +4670,13 @@
         <v>6340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4757,13 +4685,13 @@
         <v>10521</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4706,13 @@
         <v>71788</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>69</v>
@@ -4793,13 +4721,13 @@
         <v>80121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>146</v>
@@ -4808,13 +4736,13 @@
         <v>151909</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4757,13 @@
         <v>28218</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4844,13 +4772,13 @@
         <v>24387</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4859,13 +4787,13 @@
         <v>52604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4861,13 @@
         <v>40485</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4948,10 +4876,10 @@
         <v>16177</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>16</v>
@@ -4963,13 +4891,13 @@
         <v>56662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4912,13 @@
         <v>96536</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4999,13 +4927,13 @@
         <v>27829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
@@ -5014,13 +4942,13 @@
         <v>124365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +4963,13 @@
         <v>316530</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>356</v>
@@ -5050,13 +4978,13 @@
         <v>376044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -5065,13 +4993,13 @@
         <v>692574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5014,13 @@
         <v>134153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -5101,13 +5029,13 @@
         <v>165095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>280</v>
@@ -5116,13 +5044,13 @@
         <v>299248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,7 +5106,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5190,13 +5118,13 @@
         <v>68157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5205,13 +5133,13 @@
         <v>14253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -5220,13 +5148,13 @@
         <v>82410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5169,13 @@
         <v>164235</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -5256,13 +5184,13 @@
         <v>70918</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M15" s="7">
         <v>217</v>
@@ -5271,13 +5199,13 @@
         <v>235153</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5220,13 @@
         <v>540780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>526</v>
@@ -5307,13 +5235,13 @@
         <v>573114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>1019</v>
@@ -5322,13 +5250,13 @@
         <v>1113893</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5271,13 @@
         <v>244775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>338</v>
@@ -5358,13 +5286,13 @@
         <v>373899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>563</v>
@@ -5373,13 +5301,13 @@
         <v>618675</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,7 +5363,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5447,13 +5375,13 @@
         <v>69493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5462,13 +5390,13 @@
         <v>15011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -5477,13 +5405,13 @@
         <v>84504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5426,13 @@
         <v>168260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -5513,13 +5441,13 @@
         <v>48187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>195</v>
@@ -5528,13 +5456,13 @@
         <v>216447</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5477,13 @@
         <v>362510</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
         <v>443</v>
@@ -5564,13 +5492,13 @@
         <v>494126</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M21" s="7">
         <v>771</v>
@@ -5579,13 +5507,13 @@
         <v>856637</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5528,13 @@
         <v>157360</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -5615,13 +5543,13 @@
         <v>218752</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M22" s="7">
         <v>348</v>
@@ -5630,13 +5558,13 @@
         <v>376112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,7 +5620,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5704,13 +5632,13 @@
         <v>97506</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -5719,13 +5647,13 @@
         <v>23693</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>372</v>
+        <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>121</v>
@@ -5734,13 +5662,13 @@
         <v>121199</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>267</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5683,13 @@
         <v>166997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -5770,13 +5698,13 @@
         <v>79326</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -5785,13 +5713,13 @@
         <v>246323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5734,13 @@
         <v>477116</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>598</v>
@@ -5821,28 +5749,28 @@
         <v>630186</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>1053</v>
       </c>
       <c r="N26" s="7">
-        <v>1107302</v>
+        <v>1107303</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5785,13 @@
         <v>205223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H27" s="7">
         <v>307</v>
@@ -5872,13 +5800,13 @@
         <v>318696</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M27" s="7">
         <v>500</v>
@@ -5887,13 +5815,13 @@
         <v>523919</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,7 +5863,7 @@
         <v>1912</v>
       </c>
       <c r="N28" s="7">
-        <v>1998743</v>
+        <v>1998744</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -5961,13 +5889,13 @@
         <v>286358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>393</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>404</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -5976,13 +5904,13 @@
         <v>70191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M29" s="7">
         <v>344</v>
@@ -5991,13 +5919,13 @@
         <v>356548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>398</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>409</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +5940,13 @@
         <v>600210</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H30" s="7">
         <v>215</v>
@@ -6030,10 +5958,10 @@
         <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M30" s="7">
         <v>779</v>
@@ -6042,13 +5970,13 @@
         <v>832810</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +5991,13 @@
         <v>1768725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H31" s="7">
         <v>1992</v>
@@ -6078,13 +6006,13 @@
         <v>2153591</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M31" s="7">
         <v>3639</v>
@@ -6093,13 +6021,13 @@
         <v>3922316</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6042,13 @@
         <v>769729</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="H32" s="7">
         <v>1026</v>
@@ -6129,13 +6057,13 @@
         <v>1100829</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="M32" s="7">
         <v>1742</v>
@@ -6144,13 +6072,13 @@
         <v>1870558</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,7 +6134,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6227,7 +6155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DB3A6-90E7-4720-9ABD-0B842242AD6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735721A7-7F6A-4B43-964B-3C5DCF1BDA81}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6244,7 +6172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6351,13 +6279,13 @@
         <v>4049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>426</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6366,13 +6294,13 @@
         <v>1025</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -6381,13 +6309,13 @@
         <v>5074</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6330,13 @@
         <v>17812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -6417,13 +6345,13 @@
         <v>11681</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6432,13 +6360,13 @@
         <v>29493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6381,13 @@
         <v>64426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H6" s="7">
         <v>57</v>
@@ -6468,13 +6396,13 @@
         <v>57001</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>120</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>454</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M6" s="7">
         <v>119</v>
@@ -6483,13 +6411,13 @@
         <v>121428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6432,13 @@
         <v>30259</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -6519,13 +6447,13 @@
         <v>43652</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -6534,13 +6462,13 @@
         <v>73911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6536,13 @@
         <v>16069</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6623,13 +6551,13 @@
         <v>5973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>471</v>
+        <v>333</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -6638,13 +6566,13 @@
         <v>22042</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6587,13 @@
         <v>103599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -6674,13 +6602,13 @@
         <v>39403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -6689,13 +6617,13 @@
         <v>143002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6638,13 @@
         <v>230648</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>250</v>
@@ -6725,13 +6653,13 @@
         <v>248297</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>473</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>473</v>
@@ -6740,13 +6668,13 @@
         <v>478944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6689,13 @@
         <v>207939</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="H12" s="7">
         <v>255</v>
@@ -6776,13 +6704,13 @@
         <v>265807</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M12" s="7">
         <v>455</v>
@@ -6791,13 +6719,13 @@
         <v>473746</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,7 +6781,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6865,13 +6793,13 @@
         <v>87787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -6880,13 +6808,13 @@
         <v>24175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -6895,13 +6823,13 @@
         <v>111962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6844,13 @@
         <v>176808</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="H15" s="7">
         <v>102</v>
@@ -6931,13 +6859,13 @@
         <v>110159</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>510</v>
+        <v>103</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="M15" s="7">
         <v>263</v>
@@ -6946,13 +6874,13 @@
         <v>286967</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>513</v>
+        <v>364</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6895,13 @@
         <v>398827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="H16" s="7">
         <v>436</v>
@@ -6982,13 +6910,13 @@
         <v>460035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>520</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>808</v>
@@ -6997,13 +6925,13 @@
         <v>858863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +6946,13 @@
         <v>359008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="H17" s="7">
         <v>414</v>
@@ -7033,13 +6961,13 @@
         <v>448543</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="M17" s="7">
         <v>753</v>
@@ -7048,13 +6976,13 @@
         <v>807552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,7 +7038,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7122,13 +7050,13 @@
         <v>49107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -7137,13 +7065,13 @@
         <v>19942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -7152,13 +7080,13 @@
         <v>69048</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>164</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7101,13 @@
         <v>122087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="H20" s="7">
         <v>69</v>
@@ -7188,13 +7116,13 @@
         <v>70344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="M20" s="7">
         <v>177</v>
@@ -7203,13 +7131,13 @@
         <v>192431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7152,13 @@
         <v>336189</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>535</v>
       </c>
       <c r="H21" s="7">
         <v>362</v>
@@ -7239,13 +7167,13 @@
         <v>382659</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="M21" s="7">
         <v>670</v>
@@ -7254,13 +7182,13 @@
         <v>718848</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7203,13 @@
         <v>252170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -7290,13 +7218,13 @@
         <v>312067</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="M22" s="7">
         <v>519</v>
@@ -7305,13 +7233,13 @@
         <v>564236</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,7 +7295,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7379,13 +7307,13 @@
         <v>86587</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7394,13 +7322,13 @@
         <v>23756</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>566</v>
+        <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -7409,13 +7337,13 @@
         <v>110342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>569</v>
+        <v>240</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7358,13 @@
         <v>165900</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -7445,13 +7373,13 @@
         <v>110632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="M25" s="7">
         <v>272</v>
@@ -7460,13 +7388,13 @@
         <v>276531</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7409,13 @@
         <v>386512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>432</v>
@@ -7496,13 +7424,13 @@
         <v>465094</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="M26" s="7">
         <v>816</v>
@@ -7511,13 +7439,13 @@
         <v>851606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,13 +7460,13 @@
         <v>298569</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="H27" s="7">
         <v>398</v>
@@ -7547,13 +7475,13 @@
         <v>444298</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="M27" s="7">
         <v>696</v>
@@ -7562,13 +7490,13 @@
         <v>742867</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7564,13 @@
         <v>243598</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -7651,13 +7579,13 @@
         <v>74870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="M29" s="7">
         <v>304</v>
@@ -7666,13 +7594,13 @@
         <v>318468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7615,13 @@
         <v>586205</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>607</v>
+        <v>525</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>608</v>
+        <v>461</v>
       </c>
       <c r="H30" s="7">
         <v>330</v>
@@ -7702,13 +7630,13 @@
         <v>342218</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="M30" s="7">
         <v>883</v>
@@ -7717,13 +7645,13 @@
         <v>928424</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7666,13 @@
         <v>1416602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="H31" s="7">
         <v>1537</v>
@@ -7753,13 +7681,13 @@
         <v>1613086</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>30</v>
+        <v>602</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="M31" s="7">
         <v>2886</v>
@@ -7768,13 +7696,13 @@
         <v>3029688</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>621</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7717,13 @@
         <v>1147944</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="H32" s="7">
         <v>1396</v>
@@ -7804,13 +7732,13 @@
         <v>1514368</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="M32" s="7">
         <v>2496</v>
@@ -7819,13 +7747,13 @@
         <v>2662312</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,7 +7809,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7902,7 +7830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830EB7E4-D933-4D8C-BA9E-7E2F3A91F483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809A878B-DE10-49ED-8CCA-6108D94B4F60}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7919,7 +7847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8026,13 +7954,13 @@
         <v>10469</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>632</v>
+        <v>489</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>615</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -8041,13 +7969,13 @@
         <v>5020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>634</v>
+        <v>521</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>268</v>
+        <v>617</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -8056,13 +7984,13 @@
         <v>15489</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>620</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8005,13 @@
         <v>12924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -8092,13 +8020,13 @@
         <v>6081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>641</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>642</v>
+        <v>56</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -8107,13 +8035,13 @@
         <v>19005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>643</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8056,13 @@
         <v>42433</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="H6" s="7">
         <v>138</v>
@@ -8143,13 +8071,13 @@
         <v>71694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>651</v>
+        <v>247</v>
       </c>
       <c r="M6" s="7">
         <v>191</v>
@@ -8158,13 +8086,13 @@
         <v>114127</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>652</v>
+        <v>313</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>424</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8107,13 @@
         <v>33387</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>654</v>
+        <v>479</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -8194,13 +8122,13 @@
         <v>47938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="M7" s="7">
         <v>131</v>
@@ -8209,13 +8137,13 @@
         <v>81325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8283,13 +8211,13 @@
         <v>31071</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -8298,13 +8226,13 @@
         <v>19064</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>666</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>668</v>
+        <v>398</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -8313,13 +8241,13 @@
         <v>50135</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>339</v>
+        <v>647</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,13 +8262,13 @@
         <v>67197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -8349,13 +8277,13 @@
         <v>49973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -8364,13 +8292,13 @@
         <v>117170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8385,13 +8313,13 @@
         <v>240283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>680</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="H11" s="7">
         <v>515</v>
@@ -8400,13 +8328,13 @@
         <v>296222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>683</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="M11" s="7">
         <v>816</v>
@@ -8415,13 +8343,13 @@
         <v>536505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,13 +8364,13 @@
         <v>211272</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="H12" s="7">
         <v>390</v>
@@ -8451,13 +8379,13 @@
         <v>226894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>583</v>
+        <v>668</v>
       </c>
       <c r="M12" s="7">
         <v>619</v>
@@ -8466,13 +8394,13 @@
         <v>438165</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>692</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,7 +8456,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8540,13 +8468,13 @@
         <v>92683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>694</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -8555,13 +8483,13 @@
         <v>52543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>696</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>620</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -8570,13 +8498,13 @@
         <v>145227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8591,13 +8519,13 @@
         <v>161471</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>702</v>
+        <v>200</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>703</v>
+        <v>305</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -8606,13 +8534,13 @@
         <v>70633</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>704</v>
+        <v>556</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>135</v>
+        <v>676</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="M15" s="7">
         <v>209</v>
@@ -8621,13 +8549,13 @@
         <v>232104</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8642,13 +8570,13 @@
         <v>455762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>630</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="H16" s="7">
         <v>787</v>
@@ -8657,13 +8585,13 @@
         <v>533513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="M16" s="7">
         <v>1224</v>
@@ -8672,13 +8600,13 @@
         <v>989275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8693,13 +8621,13 @@
         <v>326511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="H17" s="7">
         <v>581</v>
@@ -8708,13 +8636,13 @@
         <v>402004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="M17" s="7">
         <v>914</v>
@@ -8723,13 +8651,13 @@
         <v>728516</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8785,7 +8713,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8797,13 +8725,13 @@
         <v>99295</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -8812,13 +8740,13 @@
         <v>54997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>701</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -8827,13 +8755,13 @@
         <v>154292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>728</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8848,13 +8776,13 @@
         <v>83611</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -8863,13 +8791,13 @@
         <v>48126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>732</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -8878,13 +8806,13 @@
         <v>131737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8899,13 +8827,13 @@
         <v>294757</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>546</v>
+        <v>710</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>582</v>
+        <v>712</v>
       </c>
       <c r="H21" s="7">
         <v>443</v>
@@ -8914,13 +8842,13 @@
         <v>420772</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="M21" s="7">
         <v>735</v>
@@ -8929,13 +8857,13 @@
         <v>715529</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>740</v>
+        <v>685</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,13 +8878,13 @@
         <v>249990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="H22" s="7">
         <v>477</v>
@@ -8965,13 +8893,13 @@
         <v>347713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="M22" s="7">
         <v>730</v>
@@ -8980,13 +8908,13 @@
         <v>597703</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9042,7 +8970,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9054,13 +8982,13 @@
         <v>180391</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="H24" s="7">
         <v>164</v>
@@ -9069,13 +8997,13 @@
         <v>130902</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="M24" s="7">
         <v>319</v>
@@ -9084,13 +9012,13 @@
         <v>311293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>759</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,13 +9033,13 @@
         <v>98291</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -9120,13 +9048,13 @@
         <v>63238</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -9135,13 +9063,13 @@
         <v>161529</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9156,13 +9084,13 @@
         <v>403735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="H26" s="7">
         <v>692</v>
@@ -9171,13 +9099,13 @@
         <v>492093</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>772</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>747</v>
       </c>
       <c r="M26" s="7">
         <v>1144</v>
@@ -9186,13 +9114,13 @@
         <v>895828</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9207,13 +9135,13 @@
         <v>279715</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>779</v>
+        <v>452</v>
       </c>
       <c r="H27" s="7">
         <v>630</v>
@@ -9222,13 +9150,13 @@
         <v>458308</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>615</v>
+        <v>753</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>689</v>
+        <v>755</v>
       </c>
       <c r="M27" s="7">
         <v>934</v>
@@ -9237,13 +9165,13 @@
         <v>738022</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9311,13 +9239,13 @@
         <v>413909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="H29" s="7">
         <v>330</v>
@@ -9326,13 +9254,13 @@
         <v>262526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="M29" s="7">
         <v>661</v>
@@ -9341,13 +9269,13 @@
         <v>676435</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,13 +9290,13 @@
         <v>423494</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="H30" s="7">
         <v>279</v>
@@ -9377,13 +9305,13 @@
         <v>238051</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>271</v>
+        <v>768</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>639</v>
+        <v>770</v>
       </c>
       <c r="M30" s="7">
         <v>619</v>
@@ -9392,13 +9320,13 @@
         <v>661545</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>136</v>
+        <v>771</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>794</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9413,13 +9341,13 @@
         <v>1436970</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>546</v>
+        <v>692</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="H31" s="7">
         <v>2575</v>
@@ -9428,13 +9356,13 @@
         <v>1814294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>144</v>
+        <v>773</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>796</v>
+        <v>601</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="M31" s="7">
         <v>4110</v>
@@ -9443,13 +9371,13 @@
         <v>3251264</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>558</v>
+        <v>776</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>799</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9464,13 +9392,13 @@
         <v>1100874</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="H32" s="7">
         <v>2167</v>
@@ -9479,13 +9407,13 @@
         <v>1482857</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>805</v>
+        <v>610</v>
       </c>
       <c r="M32" s="7">
         <v>3328</v>
@@ -9494,13 +9422,13 @@
         <v>2583731</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9556,7 +9484,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
